--- a/ficks.xlsx
+++ b/ficks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFDAFF-81E9-8647-9E44-6E16AAA9F79D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46168CA2-9947-5744-8B62-A4DC6FC74C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{D51F40AD-F552-F24D-AABB-FD3AC1182CD6}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{D51F40AD-F552-F24D-AABB-FD3AC1182CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -121,16 +121,16 @@
     <t>B</t>
   </si>
   <si>
-    <t>A ===&gt; B</t>
-  </si>
-  <si>
     <t>r2</t>
   </si>
   <si>
-    <t>!B =&gt; C</t>
-  </si>
-  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>A =&gt; B</t>
+  </si>
+  <si>
+    <t>B ===&gt; C</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6F2B75-C115-8546-AB4E-EED640ADA059}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -659,7 +659,7 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,13 +673,13 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE42380E-BCB9-D14D-A1AB-9F6FB64509CB}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -791,10 +791,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
         <v>1.4</v>
@@ -814,13 +814,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
         <v>1.4</v>
@@ -836,12 +836,11 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -863,11 +862,12 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -890,12 +890,10 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -916,10 +914,11 @@
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -928,11 +927,10 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -941,6 +939,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -953,7 +952,6 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1030,10 +1028,10 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
@@ -1042,10 +1040,10 @@
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
@@ -1193,18 +1191,6 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="10"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
